--- a/Data/EC/NIT-9008583731.xlsx
+++ b/Data/EC/NIT-9008583731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91BBA536-7E4C-4054-B427-BEB922972B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3796AC-819C-496A-B991-331E661F0065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DF7E5E3-B29F-4DCD-AC31-629088EC1BB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BC66965-D9BA-4924-A871-ABED0BFBD616}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,121 +71,121 @@
     <t>AILEEN PAOLA JAIMES HERNANDEZ</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
     <t>1709</t>
   </si>
   <si>
-    <t>1710</t>
-  </si>
-  <si>
     <t>1047497753</t>
   </si>
   <si>
     <t>KARELYS CONSUELO MORENO MEZA</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -229,7 +229,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD374D3-53AE-779F-4276-07FC58FC9E4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665C98B0-A6A9-0951-A347-4536F39775FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,28 +950,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BB8813-0F86-4090-A216-F216085A2B69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361E1529-8D4E-4ED4-BFD6-026F7C2F9E8B}">
   <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -984,7 +984,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -995,7 +995,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1006,7 +1006,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1017,8 +1017,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1033,8 +1033,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1049,8 +1049,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
@@ -1065,8 +1065,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>53</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>29166</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1137,7 +1137,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1160,21 +1160,21 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1183,7 +1183,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1194,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>737717</v>
@@ -1206,21 +1206,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>737717</v>
@@ -1229,7 +1229,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>737717</v>
@@ -1252,21 +1252,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>737717</v>
@@ -1275,7 +1275,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>737717</v>
@@ -1298,21 +1298,21 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>737717</v>
@@ -1321,21 +1321,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>737717</v>
@@ -1344,7 +1344,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1355,10 +1355,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>737717</v>
@@ -1367,7 +1367,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1378,10 +1378,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>737717</v>
@@ -1390,21 +1390,21 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>737717</v>
@@ -1413,21 +1413,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>737717</v>
@@ -1436,7 +1436,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1447,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>737717</v>
@@ -1459,21 +1459,21 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>737717</v>
@@ -1482,7 +1482,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1493,10 +1493,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>737717</v>
@@ -1505,7 +1505,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1516,10 +1516,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>737717</v>
@@ -1528,21 +1528,21 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>737717</v>
@@ -1551,7 +1551,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1562,10 +1562,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>737717</v>
@@ -1574,21 +1574,21 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>737717</v>
@@ -1597,7 +1597,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1608,10 +1608,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>737717</v>
@@ -1620,21 +1620,21 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1643,18 +1643,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1666,7 +1666,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1689,7 +1689,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1700,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
         <v>737717</v>
@@ -1712,21 +1712,21 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
         <v>737717</v>
@@ -1735,7 +1735,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1746,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
         <v>737717</v>
@@ -1758,21 +1758,21 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
         <v>737717</v>
@@ -1781,21 +1781,21 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
         <v>737717</v>
@@ -1804,7 +1804,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1815,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
         <v>737717</v>
@@ -1827,7 +1827,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1838,10 +1838,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
         <v>737717</v>
@@ -1850,21 +1850,21 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
         <v>737717</v>
@@ -1873,21 +1873,21 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
         <v>737717</v>
@@ -1896,7 +1896,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -1907,10 +1907,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
         <v>737717</v>
@@ -1919,7 +1919,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -1930,10 +1930,10 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
         <v>737717</v>
@@ -1942,21 +1942,21 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
         <v>737717</v>
@@ -1965,21 +1965,21 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>29166</v>
       </c>
       <c r="G53" s="18">
         <v>737717</v>
@@ -1988,18 +1988,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2011,18 +2011,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2034,18 +2034,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2057,18 +2057,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2080,18 +2080,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2103,18 +2103,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2126,18 +2126,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2149,18 +2149,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2172,18 +2172,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2195,18 +2195,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2218,18 +2218,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2241,18 +2241,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2264,18 +2264,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2287,18 +2287,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2310,18 +2310,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2333,18 +2333,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2356,18 +2356,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2379,18 +2379,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2402,18 +2402,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2425,18 +2425,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2448,18 +2448,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2471,18 +2471,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2494,18 +2494,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2517,18 +2517,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2540,21 +2540,21 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
         <v>737717</v>
@@ -2563,21 +2563,21 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G79" s="18">
         <v>737717</v>
@@ -2586,21 +2586,21 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G80" s="18">
         <v>737717</v>
@@ -2609,21 +2609,21 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
         <v>737717</v>
@@ -2632,21 +2632,21 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G82" s="18">
         <v>737717</v>
@@ -2655,21 +2655,21 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G83" s="18">
         <v>737717</v>
@@ -2678,21 +2678,21 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G84" s="18">
         <v>737717</v>
@@ -2701,21 +2701,21 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
         <v>737717</v>
@@ -2724,21 +2724,21 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G86" s="18">
         <v>737717</v>
@@ -2747,21 +2747,21 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F87" s="18">
-        <v>29166</v>
+        <v>29509</v>
       </c>
       <c r="G87" s="18">
         <v>737717</v>
@@ -2770,21 +2770,21 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F88" s="24">
-        <v>29166</v>
+        <v>29509</v>
       </c>
       <c r="G88" s="24">
         <v>737717</v>
@@ -2793,7 +2793,7 @@
       <c r="I88" s="25"/>
       <c r="J88" s="26"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="32" t="s">
         <v>59</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="32" t="s">
         <v>58</v>
       </c>

--- a/Data/EC/NIT-9008583731.xlsx
+++ b/Data/EC/NIT-9008583731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3796AC-819C-496A-B991-331E661F0065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA2974B-F88F-45AA-8A2B-D1A5E0218750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BC66965-D9BA-4924-A871-ABED0BFBD616}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F5723D1E-A075-4603-A666-C2A9B6534AF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,121 +71,121 @@
     <t>AILEEN PAOLA JAIMES HERNANDEZ</t>
   </si>
   <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1047497753</t>
+  </si>
+  <si>
+    <t>KARELYS CONSUELO MORENO MEZA</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1047497753</t>
-  </si>
-  <si>
-    <t>KARELYS CONSUELO MORENO MEZA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665C98B0-A6A9-0951-A347-4536F39775FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8026394-819A-04E6-C3BD-4583703C80A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361E1529-8D4E-4ED4-BFD6-026F7C2F9E8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A778AED9-1BEC-434A-8BCC-2D99B8A07B6A}">
   <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1128,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29166</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1165,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1194,13 +1194,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1211,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1243,10 +1243,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1257,19 +1257,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1286,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1303,19 +1303,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1332,13 +1332,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1349,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1395,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1424,13 +1424,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1441,19 +1441,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1470,13 +1470,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1487,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1516,13 +1516,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1533,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,13 +1562,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1579,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1608,13 +1608,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1625,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1654,13 +1654,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1671,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1700,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1717,19 +1717,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1746,13 +1746,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1763,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1792,13 +1792,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1809,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1838,13 +1838,13 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1855,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1884,13 +1884,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1901,19 +1901,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1930,13 +1930,13 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1947,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1970,19 +1970,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
-        <v>29166</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1993,19 +1993,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2016,19 +2016,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2039,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2062,19 +2062,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2085,19 +2085,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2108,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2131,19 +2131,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2154,19 +2154,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2177,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2200,19 +2200,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2223,19 +2223,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2246,19 +2246,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2269,19 +2269,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2292,19 +2292,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2315,19 +2315,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2338,19 +2338,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2361,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2384,19 +2384,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2407,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2430,19 +2430,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2453,19 +2453,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2476,19 +2476,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2499,19 +2499,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2522,19 +2522,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2545,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2568,19 +2568,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F79" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2591,19 +2591,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2614,19 +2614,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F81" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2637,19 +2637,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2660,19 +2660,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F83" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2683,19 +2683,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2706,19 +2706,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F85" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2729,19 +2729,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F86" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2752,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F87" s="18">
-        <v>29509</v>
+        <v>29166</v>
       </c>
       <c r="G87" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2775,19 +2775,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D88" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E88" s="22" t="s">
-        <v>46</v>
-      </c>
       <c r="F88" s="24">
-        <v>29509</v>
+        <v>29166</v>
       </c>
       <c r="G88" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
